--- a/OnBoard/output/trust/bio/Bio_Trust_22.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_22.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F2">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F3">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F4">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F5">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F6">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F7">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAJAMIR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F8">
@@ -759,19 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="I8">
-        <v>117</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -781,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -796,12 +791,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F9">
@@ -811,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -828,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +838,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -858,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -875,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,7 +885,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -905,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -922,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -937,7 +932,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -952,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -969,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,7 +979,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -999,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1016,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,7 +1026,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1046,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1063,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,12 +1073,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F15">
@@ -1093,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1110,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1125,12 +1120,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F16">
@@ -1140,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1157,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1172,12 +1167,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F17">
@@ -1187,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1204,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1219,12 +1214,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F18">
@@ -1234,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1251,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1266,12 +1261,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F19">
@@ -1281,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1298,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1313,12 +1308,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F20">
@@ -1328,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1345,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1360,12 +1355,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F21">
@@ -1375,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1392,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1407,12 +1402,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F22">
@@ -1422,19 +1417,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="I22">
-        <v>326</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MEDSE-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L22">
@@ -1444,7 +1434,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1459,12 +1449,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F23">
@@ -1474,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1491,7 +1481,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1506,12 +1496,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F24">
@@ -1521,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1538,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1553,12 +1543,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F25">
@@ -1568,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -1585,7 +1575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1600,7 +1590,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1615,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -1632,7 +1622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1647,12 +1637,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F27">
@@ -1662,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -1679,7 +1669,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1694,12 +1684,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F28">
@@ -1709,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -1726,7 +1716,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1741,12 +1731,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F29">
@@ -1756,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -1773,7 +1763,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1788,12 +1778,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F30">
@@ -1803,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -1820,7 +1810,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1835,12 +1825,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F31">
@@ -1850,14 +1840,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="I31">
-        <v>75</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L31">
@@ -1867,7 +1857,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1882,12 +1872,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F32">
@@ -1897,14 +1887,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="I32">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L32">
@@ -1914,7 +1904,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1929,12 +1919,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F33">
@@ -1944,14 +1934,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="I33">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L33">
@@ -1961,7 +1951,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1976,12 +1966,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F34">
@@ -1991,14 +1981,14 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L34">
@@ -2008,7 +1998,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2023,12 +2013,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F35">
@@ -2038,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2055,7 +2045,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2070,12 +2060,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F36">
@@ -2085,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2102,7 +2092,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2117,12 +2107,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F37">
@@ -2132,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2149,7 +2139,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2164,12 +2154,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F38">
@@ -2179,19 +2169,14 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I38">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L38">
@@ -2201,7 +2186,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2216,12 +2201,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F39">
@@ -2231,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="I39">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2243,7 +2228,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L39">
@@ -2253,7 +2238,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2268,12 +2253,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F40">
@@ -2283,19 +2268,14 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I40">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L40">
@@ -2305,7 +2285,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2320,12 +2300,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F41">
@@ -2335,19 +2315,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I41">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L41">
@@ -2357,7 +2332,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2372,12 +2347,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F42">
@@ -2387,19 +2362,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="I42">
-        <v>58</v>
+        <v>-1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L42">
@@ -2409,7 +2379,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2429,7 +2399,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F43">
@@ -2439,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2456,7 +2426,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2486,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2503,7 +2473,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2533,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2550,7 +2520,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2580,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2597,7 +2567,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2627,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2644,7 +2614,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2674,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I48">
         <v>-1</v>
@@ -2691,7 +2661,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2711,7 +2681,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F49">
@@ -2721,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="I49">
         <v>-1</v>
@@ -2738,7 +2708,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2758,7 +2728,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F50">
@@ -2768,14 +2738,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="I50">
-        <v>-1</v>
+        <v>101</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L50">
@@ -2785,7 +2760,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2805,7 +2780,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F51">
@@ -2815,14 +2790,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="I51">
-        <v>-1</v>
+        <v>48</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L51">
@@ -2832,7 +2812,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2852,7 +2832,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F52">
@@ -2862,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I52">
         <v>-1</v>
@@ -2879,7 +2859,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2899,7 +2879,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F53">
@@ -2909,14 +2889,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="I53">
-        <v>48</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -2926,7 +2906,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2946,7 +2926,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F54">
@@ -2956,14 +2936,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="I54">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L54">
@@ -2973,7 +2953,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2993,7 +2973,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F55">
@@ -3003,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I55">
         <v>-1</v>
@@ -3020,7 +3000,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3040,7 +3020,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F56">
@@ -3050,14 +3030,14 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="I56">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L56">
@@ -3067,7 +3047,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3087,7 +3067,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F57">
@@ -3097,14 +3077,14 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="I57">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L57">
@@ -3114,7 +3094,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3134,7 +3114,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F58">
@@ -3144,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>121</v>
+        <v>322</v>
       </c>
       <c r="I58">
         <v>-1</v>
@@ -3161,7 +3141,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3181,7 +3161,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F59">
@@ -3191,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="I59">
         <v>-1</v>
@@ -3208,7 +3188,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3228,7 +3208,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F60">
@@ -3238,14 +3218,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I60">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L60">
@@ -3255,7 +3240,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3275,7 +3260,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F61">
@@ -3285,14 +3270,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="I61">
-        <v>-1</v>
+        <v>225</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L61">
@@ -3302,7 +3292,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3322,7 +3312,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F62">
@@ -3332,14 +3322,19 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>184</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L62">
@@ -3349,7 +3344,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3369,7 +3364,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F63">
@@ -3379,14 +3374,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>132</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L63">
@@ -3396,7 +3396,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F64">
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="I64">
         <v>-1</v>
@@ -3443,7 +3443,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F65">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="I65">
         <v>-1</v>
@@ -3490,7 +3490,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F66">
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="I66">
         <v>-1</v>
@@ -3537,7 +3537,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F67">
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="I67">
         <v>-1</v>
@@ -3584,7 +3584,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F68">
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="I68">
         <v>-1</v>
@@ -3631,7 +3631,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F69">
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="I69">
         <v>-1</v>
@@ -3678,7 +3678,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3693,12 +3693,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F70">
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="I70">
         <v>-1</v>
@@ -3725,7 +3725,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3740,12 +3740,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F71">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="I71">
         <v>-1</v>
@@ -3772,7 +3772,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F72">
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="I72">
         <v>-1</v>
@@ -3819,7 +3819,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F73">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="I73">
         <v>-1</v>
@@ -3866,7 +3866,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3881,12 +3881,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F74">
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="I74">
         <v>-1</v>
@@ -3913,7 +3913,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F75">
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I75">
         <v>-1</v>
@@ -3960,7 +3960,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3975,12 +3975,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F76">
@@ -3990,19 +3990,14 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="I76">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L76">
@@ -4012,7 +4007,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4027,12 +4022,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F77">
@@ -4042,19 +4037,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I77">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L77">
@@ -4064,7 +4054,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4079,12 +4069,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F78">
@@ -4094,19 +4084,14 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="I78">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L78">
@@ -4116,7 +4101,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4131,12 +4116,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F79">
@@ -4146,34 +4131,24 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="I79">
-        <v>453</v>
+        <v>-1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L79">
         <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>SS7701</t>
-        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4188,12 +4163,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F80">
@@ -4203,34 +4178,24 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="I80">
-        <v>183</v>
+        <v>-1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L80">
         <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>SS7702</t>
-        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4245,12 +4210,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F81">
@@ -4260,34 +4225,24 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="I81">
-        <v>202</v>
+        <v>-1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L81">
         <v>0</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>SS7703</t>
-        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4302,12 +4257,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F82">
@@ -4317,34 +4272,24 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="I82">
-        <v>158</v>
+        <v>-1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L82">
         <v>0</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>SS7704</t>
-        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4359,12 +4304,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F83">
@@ -4374,34 +4319,24 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="I83">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L83">
         <v>0</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>SS7705</t>
-        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4416,12 +4351,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F84">
@@ -4431,34 +4366,24 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="I84">
-        <v>170</v>
+        <v>-1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L84">
         <v>0</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>SS7706</t>
-        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4473,12 +4398,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F85">
@@ -4488,34 +4413,24 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="I85">
-        <v>217</v>
+        <v>-1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L85">
         <v>0</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>SS7707</t>
-        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4535,7 +4450,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F86">
@@ -4545,34 +4460,24 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="I86">
-        <v>157</v>
+        <v>-1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L86">
         <v>0</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>SS7708</t>
-        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4592,7 +4497,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F87">
@@ -4602,34 +4507,24 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="I87">
-        <v>154</v>
+        <v>-1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L87">
         <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>SS7709</t>
-        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4649,7 +4544,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F88">
@@ -4659,34 +4554,24 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="I88">
-        <v>240</v>
+        <v>-1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L88">
         <v>0</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>SS7710</t>
-        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4706,7 +4591,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F89">
@@ -4716,34 +4601,24 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="I89">
-        <v>283</v>
+        <v>-1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L89">
         <v>0</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>SS7711</t>
-        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4763,7 +4638,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F90">
@@ -4773,34 +4648,24 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="I90">
-        <v>195</v>
+        <v>-1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L90">
         <v>0</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>SS7712</t>
-        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4820,7 +4685,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F91">
@@ -4830,34 +4695,24 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="I91">
-        <v>218</v>
+        <v>-1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L91">
         <v>0</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>SS7713</t>
-        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4877,7 +4732,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F92">
@@ -4887,34 +4742,24 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="I92">
-        <v>185</v>
+        <v>-1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L92">
         <v>0</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>SS7714</t>
-        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4934,7 +4779,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F93">
@@ -4944,34 +4789,24 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="I93">
-        <v>161</v>
+        <v>-1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L93">
         <v>0</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>SS7715</t>
-        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4991,38 +4826,1866 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>MICUVAR</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>165</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>LOPHBUD</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MERLMER</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>250</v>
+      </c>
+      <c r="I96">
+        <v>111</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
+        </is>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MERLMER</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>168</v>
+      </c>
+      <c r="I97">
+        <v>31</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>119</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>74</v>
+      </c>
+      <c r="I99">
+        <v>53</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>62</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>96</v>
+      </c>
+      <c r="I101">
+        <v>94</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>60</v>
+      </c>
+      <c r="I102">
+        <v>30</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>83</v>
+      </c>
+      <c r="I103">
+        <v>75</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>TORPMAR</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>160</v>
+      </c>
+      <c r="I104">
+        <v>90</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TORPMAR</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>238</v>
+      </c>
+      <c r="I105">
+        <v>306</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
+        </is>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MICUVAR</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>138</v>
+      </c>
+      <c r="I106">
+        <v>-1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>SOLEVUL</t>
         </is>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>282</v>
-      </c>
-      <c r="I94">
-        <v>203</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>285</v>
+      </c>
+      <c r="I107">
+        <v>186</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
+        </is>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>SS8139</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>304</v>
+      </c>
+      <c r="I108">
+        <v>199</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
+        </is>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>SS8140</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>301</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>HOLRA-3</t>
         </is>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>SS7716</t>
-        </is>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>SS8141</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>287</v>
+      </c>
+      <c r="I110">
+        <v>208</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>SS8142</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SERAHEP</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>82</v>
+      </c>
+      <c r="I111">
+        <v>-1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>41</v>
+      </c>
+      <c r="I112">
+        <v>9</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>39</v>
+      </c>
+      <c r="I113">
+        <v>13</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>44</v>
+      </c>
+      <c r="I114">
+        <v>12</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>37</v>
+      </c>
+      <c r="I115">
+        <v>7</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>38</v>
+      </c>
+      <c r="I116">
+        <v>11</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>33</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>35</v>
+      </c>
+      <c r="I118">
+        <v>9</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>41</v>
+      </c>
+      <c r="I119">
+        <v>12</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>37</v>
+      </c>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>33</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>30</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>27</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>26</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>16</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>20</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>19</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>20</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>17</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>22</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>17</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L132">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
